--- a/PinHints.xlsx
+++ b/PinHints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\KaControl3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\ESP32DeviceController\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE36E2-C23E-4F69-A668-F36E6D0AD7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5FFAEC-92C4-4FBD-A6CA-5BFD3BBE35A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="3990" windowWidth="21600" windowHeight="11835" xr2:uid="{CF3DADBF-83E5-4D16-A608-914491EF0B5B}"/>
+    <workbookView xWindow="2190" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{CF3DADBF-83E5-4D16-A608-914491EF0B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>GPIO</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Beschreibung</t>
   </si>
   <si>
-    <t>If driven Low, silences boot messages printed by the ROM bootloader.</t>
-  </si>
-  <si>
-    <t>If driven High, flash voltage (VDD_SDIO) is 1.8V not default 3.3V.</t>
-  </si>
-  <si>
     <t>PD</t>
   </si>
   <si>
@@ -72,15 +66,6 @@
     <t>SWITCH oder Reset vom Display</t>
   </si>
   <si>
-    <t>If driven Low, Download Boot, If unconnected: SPI-Boot</t>
-  </si>
-  <si>
-    <t>Muss auf 0 bleiben, wenn "Download Boot"</t>
-  </si>
-  <si>
-    <t>Irgendwelche Tining-Eigenschaften des SDIO einstellen</t>
-  </si>
-  <si>
     <t>Sensor VP</t>
   </si>
   <si>
@@ -130,13 +115,73 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>ModulePin</t>
+  </si>
+  <si>
+    <t>sensactIO4</t>
+  </si>
+  <si>
+    <t>Muss TX bleiben</t>
+  </si>
+  <si>
+    <t>Ist natürlich zunächst RX, also Input. Könnte aber umgestellt werden</t>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>I14</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>I15</t>
+  </si>
+  <si>
+    <t>O14</t>
+  </si>
+  <si>
+    <t>STRAPPING: If driven High, flash voltage (VDD_SDIO) is 1.8V not default 3.3V.</t>
+  </si>
+  <si>
+    <t>STRAPPING: If driven Low, Download Boot, If unconnected: SPI-Boot</t>
+  </si>
+  <si>
+    <t>STRAPPING: Muss auf 0 bleiben, wenn "Download Boot"</t>
+  </si>
+  <si>
+    <t>STRAPPING: If driven Low, silences boot messages printed by the ROM bootloader.</t>
+  </si>
+  <si>
+    <t>STRAPPING: Irgendwelche Tining-Eigenschaften des SDIO einstellen</t>
+  </si>
+  <si>
+    <t>O15</t>
+  </si>
+  <si>
+    <t>O12 mit Jumper --&gt;macht nichts, wenn "silent"…und bei Bedarf mit Jumper verändern</t>
+  </si>
+  <si>
+    <t>Pull-Low-Switch+LED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +189,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,13 +219,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -185,14 +245,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B97A223B-4DF9-4A89-A483-D826DB974354}" name="Tabelle1" displayName="Tabelle1" ref="A1:E35" totalsRowShown="0">
-  <autoFilter ref="A1:E35" xr:uid="{85202B92-AC37-4566-9232-3C593AB1F1CF}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B97A223B-4DF9-4A89-A483-D826DB974354}" name="Tabelle1" displayName="Tabelle1" ref="A1:G35" totalsRowShown="0">
+  <autoFilter ref="A1:G35" xr:uid="{85202B92-AC37-4566-9232-3C593AB1F1CF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
+    <sortCondition ref="A1:A35"/>
+  </sortState>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1264F92C-40AD-4A5B-8042-CF1E22B8EB18}" name="GPIO"/>
+    <tableColumn id="6" xr3:uid="{B50336E9-FBA2-44C7-9089-E44F277179CA}" name="ModulePin"/>
     <tableColumn id="2" xr3:uid="{8F231F27-E0C5-4E89-B29E-6FBD666B6638}" name="Alt Name"/>
     <tableColumn id="3" xr3:uid="{940DC012-9DCD-475A-A479-DCB44590E186}" name="Eigenschaft"/>
     <tableColumn id="4" xr3:uid="{ACE45FE6-304F-49D6-87E9-A0A0579929EC}" name="Folgerung"/>
     <tableColumn id="5" xr3:uid="{FFC6BE79-3EAC-423D-B26D-726E0897F39B}" name="Beschreibung"/>
+    <tableColumn id="7" xr3:uid="{17A48F90-4A19-4F10-A7F2-C1A2D85DDBA7}" name="sensactIO4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,321 +560,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B8E645-9EC7-46CA-9354-9DC45C4BC9D3}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
+      <c r="B4">
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
+      <c r="B8">
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
+      <c r="B9">
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
+      <c r="B10">
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
+      <c r="B11">
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
+      <c r="B13">
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
       <c r="E17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>31</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
-        <v>16</v>
+      <c r="B34">
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
-        <v>17</v>
+      <c r="B35">
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
